--- a/TRenesasAll_110H/findchip_stock.xlsx
+++ b/TRenesasAll_110H/findchip_stock.xlsx
@@ -1,45 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/TaskModel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10B5C24-2F2B-9A44-BF25-4FC8CF2C8F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="findchip_stock" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="findchip_stock" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,21 +53,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,16 +414,5356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>7204L15TPGI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7204L15TPGI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7204L15TPGI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7204L15TPGI?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>42</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7204L15TPGI</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7204L15TPI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7204L20DB</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7204L20J8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7204L20P</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7204L20SO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7204L20SO8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7204L20TDB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>7204L20TDB</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7204L20TDB</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7204L20TP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7204L25J</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7204L25J8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>7204L25JI8</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7204L25PI</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7204L25SO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7204L25SO8</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7204L25SOI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7204L25SOI8</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7204L25TPI</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7204L30LB</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7204L30LB</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7204L30LB</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7204L30LB8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7204L30TCB</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7204L30TDB</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7204L30TDB</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>7204L30TDB</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7204L30XEB</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7204L35J</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7204L35J</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7204L35JG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7204L35JG8</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>7204L35P</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7204L35SO</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7204L35SO8</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7204L35TC</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>7204L35TP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7204L50J8</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7204L50P</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7204L50SO</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7204L50SO8</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7204L50TC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7204L50TP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7204LA12JG</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7204S25TP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>7204S80P</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>7205L12J8</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>7205L12JG</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>7205L12JG</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7205L12JG</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7205L12JG?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>82</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>7205L12JG</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>7205L12JG8</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>7205L12JG8</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>7205L12JG8</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7205L12JG8?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>82</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7205L12JG8</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>7205L12P</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7205L12PDG</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7205L12TPG8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>7205L15J</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>7205L15J</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>7205L15J</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>966</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>7205L15J</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7205L15J?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>313</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>7205L15J</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>7205L15J8</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>7205L15JG</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7205L15JG</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>7205L15JG</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>966</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>7205L15JG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7205L15JG?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>313</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7205L15JG</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7205L15JGI</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7205L15JGI</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7205L15JGI</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>966</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>7205L15JGI</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7205L15JGI?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>313</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7205L15JGI</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7205L15JGI8</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7205L15JGI8</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7205L15JGI8</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7205L15JGI8?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>313</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7205L15JGI8</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7205L15TP</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7205L15TP</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>7205L15TP</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7205L15TP?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>25</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>7205L15TP</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>7205L15TPGI</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7205L15TPGI</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>7205L15TPGI</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7205L15TPGI?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>25</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>7205L15TPGI</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>7205L15TPGI8</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>7205L20DB</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>7205L20J</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7205L20J8</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>7205L20LB8</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>7205L20P</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>7205L20TDB</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>7205L20TP</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7205L25J</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>7205L25J8</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7205L25JI</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>7205L25JI8</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>7205L25P</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>7205L25PI</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>7205L25TP</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7205L25TPI</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>7205L30LB</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>7205L30LB8</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>7205L30TDB</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>7205L35J</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>7205L35J</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Rapid Electronics</t>
+        </is>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>96</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>7205L35J8</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>7205L35JG</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rapid Electronics</t>
+        </is>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>96</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>7205L35P</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>7205L50J</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>7205L50J8</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7205L50P</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>7205L50TP</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>7206L15J</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>7206L15J</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>7206L15J</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7206L15J?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>78</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>7206L15J</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>7206L15J8</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>7206L15JG8</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>7206L15JG8</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>7206L15JG8</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7206L15JG8?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>78</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>7206L15JG8</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7206L15P</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7206L15PDG</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7206L15TPG</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>7206L15TPG</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>7206L15TPG</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/7206L15TPG?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7206L15TPG</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7206L20J</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7206L20J8</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7206L20LB</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7206L20LB</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7206L20LB</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7206L20LB8</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7206L20P</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7206L20TP</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7206L25J</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>7206L25J</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>7206L25J8</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>7206L25JG</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>7206L25JI</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>72811L10TFG</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>72811L10TFG8</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D148" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>72811L12TF</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>72811L15PF</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>72811L15PF8</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>72811L15PFG</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>72811L15PFI</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>72811L15TF</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>72811L15TFI</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D155" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>72811L15TFI8</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D156" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>72811L20PFG</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>72811L20PFG8</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>72811L25PF</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>72811L25PF8</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>72811L25PFG</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>72811L25PFI</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>72811L25PFI8</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>72811L25TF</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D164" t="b">
+        <v>1</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>72811L25TF8</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>72811L25TFI</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D166" t="b">
+        <v>0</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>72811L25TFI8</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D167" t="b">
+        <v>0</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>